--- a/配置文档/地图相关/关卡刷怪相关/刷怪配置.xlsx
+++ b/配置文档/地图相关/关卡刷怪相关/刷怪配置.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="1"/>
+    <workbookView windowHeight="17655" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="cfg_CopyBrush_战役关卡刷怪数据" sheetId="6" r:id="rId1"/>
+    <sheet name="cfg_CopyBrush_战役关卡刷怪数据" sheetId="9" r:id="rId1"/>
     <sheet name="cfg_BrushPoint_刷怪点数据" sheetId="7" r:id="rId2"/>
     <sheet name="cfg_WaveBase_波数配置" sheetId="8" r:id="rId3"/>
     <sheet name="cfg_UnitGroupData_单位组配置" sheetId="4" r:id="rId4"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="382">
   <si>
     <t>该表用于保存关卡刷怪基础数据
 刷怪是从第一波开始，
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>关卡id</t>
+  </si>
+  <si>
+    <t>关卡名称-备注</t>
   </si>
   <si>
     <t xml:space="preserve">关卡刷怪类型
@@ -255,6 +258,9 @@
     <t>CopyId</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>CopyType</t>
   </si>
   <si>
@@ -285,16 +291,61 @@
     <t>&lt;INT&gt;</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>(2,10)</t>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>(2,4)</t>
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>2|3|4</t>
+  </si>
+  <si>
+    <t>5|6</t>
+  </si>
+  <si>
+    <t>1-1战役模式-常规-初启协议</t>
+  </si>
+  <si>
+    <t>10101|10102</t>
+  </si>
+  <si>
+    <t>1-2战役模式-常规-网格枢纽</t>
+  </si>
+  <si>
+    <t>10201|10202|10203|10204</t>
+  </si>
+  <si>
+    <t>1-3战役模式-常规-怨灵水晶</t>
+  </si>
+  <si>
+    <t>10301|10302</t>
+  </si>
+  <si>
+    <t>1-4战役模式-常规-棱镜之井</t>
+  </si>
+  <si>
+    <t>10401|10402|10403</t>
+  </si>
+  <si>
+    <t>1-5战役模式-常规-钢铁洪流</t>
+  </si>
+  <si>
+    <t>10501|10502|10503</t>
+  </si>
+  <si>
+    <t>1-6战役模式-常规-重炮破晓</t>
+  </si>
+  <si>
+    <t>10601|10602|10603</t>
+  </si>
+  <si>
+    <t>1-7战役模式-常规-次元岛装置</t>
   </si>
   <si>
     <t>该表用于配置刷怪点
@@ -316,6 +367,9 @@
 （左上角位置X,左上角位置Y）|（横轴，纵轴）</t>
   </si>
   <si>
+    <t>最终目标，这个刷怪点刷出的单位都走向这个目标点</t>
+  </si>
+  <si>
     <t>刷怪波数id列表</t>
   </si>
   <si>
@@ -328,6 +382,9 @@
     <t>BrushPosList</t>
   </si>
   <si>
+    <t>TargetPos</t>
+  </si>
+  <si>
     <t>WaveIdList</t>
   </si>
   <si>
@@ -337,22 +394,205 @@
     <t>&lt;Vector2I&gt;</t>
   </si>
   <si>
+    <t>Vector2I</t>
+  </si>
+  <si>
     <t>刷怪点测试</t>
   </si>
   <si>
     <t>(16,1)|（3,3）</t>
   </si>
   <si>
+    <t>(28,36)</t>
+  </si>
+  <si>
     <t>1|2</t>
   </si>
   <si>
     <t>(21,1)|（2,2）</t>
   </si>
   <si>
-    <t>(16,1)|（4,4）</t>
-  </si>
-  <si>
-    <t>(19,5)|（4,4）</t>
+    <t>(28,1)|（2,2）</t>
+  </si>
+  <si>
+    <t>(16,3)|（8,8）</t>
+  </si>
+  <si>
+    <t>(26,41)</t>
+  </si>
+  <si>
+    <t>(28,12)|(1,1)</t>
+  </si>
+  <si>
+    <t>1|2|3|4|5|6|7|8|9|10|11|12</t>
+  </si>
+  <si>
+    <t>(13,0)|(1,1)</t>
+  </si>
+  <si>
+    <t>7|8|9|10|11|12</t>
+  </si>
+  <si>
+    <t>(1,2)|（47,0）</t>
+  </si>
+  <si>
+    <t>(23,45)</t>
+  </si>
+  <si>
+    <t>1|2|3|4</t>
+  </si>
+  <si>
+    <t>1-1初启协议-常规</t>
+  </si>
+  <si>
+    <t>←↑角刷怪点</t>
+  </si>
+  <si>
+    <t>(19,0)|(7,0)</t>
+  </si>
+  <si>
+    <t>(24,38)</t>
+  </si>
+  <si>
+    <t>1|2|3|4|5|6|7|8</t>
+  </si>
+  <si>
+    <t>↑→角刷怪点</t>
+  </si>
+  <si>
+    <t>(25,0)|(6,0)</t>
+  </si>
+  <si>
+    <t>(25,38)</t>
+  </si>
+  <si>
+    <t>1-2网格枢纽-常规</t>
+  </si>
+  <si>
+    <t>↗角刷怪点</t>
+  </si>
+  <si>
+    <t>(49,6)|(0,8)</t>
+  </si>
+  <si>
+    <t>(39,24)</t>
+  </si>
+  <si>
+    <t>1|2|3|4|5|6|7|8|9|10</t>
+  </si>
+  <si>
+    <t>↘角刷怪点</t>
+  </si>
+  <si>
+    <t>(49,34)|(0,8)</t>
+  </si>
+  <si>
+    <t>(39,27)</t>
+  </si>
+  <si>
+    <t>4|5|6|7|8|9|10</t>
+  </si>
+  <si>
+    <t>(0,18)|(0,7)</t>
+  </si>
+  <si>
+    <t>8|9|10</t>
+  </si>
+  <si>
+    <t>←↓角刷怪点</t>
+  </si>
+  <si>
+    <t>(0,24)|(0,6)</t>
+  </si>
+  <si>
+    <t>1-3怨灵水晶-常规</t>
+  </si>
+  <si>
+    <t>←角刷怪点</t>
+  </si>
+  <si>
+    <t>(0,9)|(0,6)</t>
+  </si>
+  <si>
+    <t>(23,39)</t>
+  </si>
+  <si>
+    <t>→角刷怪点</t>
+  </si>
+  <si>
+    <t>(49,9)|(0,6)</t>
+  </si>
+  <si>
+    <t>(24,39)</t>
+  </si>
+  <si>
+    <t>1-4棱镜之井-常规</t>
+  </si>
+  <si>
+    <t>(0,29)|(0,6)</t>
+  </si>
+  <si>
+    <t>(24,33)</t>
+  </si>
+  <si>
+    <t>1|2|3|4|5|6|7|8|9|10|11</t>
+  </si>
+  <si>
+    <t>↑角刷怪点</t>
+  </si>
+  <si>
+    <t>(21,0)|(7,0)</t>
+  </si>
+  <si>
+    <t>6|7|8|9|10|11</t>
+  </si>
+  <si>
+    <t>(49,29)|(0,6)</t>
+  </si>
+  <si>
+    <t>(25,33)</t>
+  </si>
+  <si>
+    <t>1-5钢铁洪流-常规</t>
+  </si>
+  <si>
+    <t>(5,0)|(8,0)</t>
+  </si>
+  <si>
+    <t>(24,42)</t>
+  </si>
+  <si>
+    <t>5|6|7|8|9|10|11</t>
+  </si>
+  <si>
+    <t>(20,0)|(9,0)</t>
+  </si>
+  <si>
+    <t>(36,0)|(8,0)</t>
+  </si>
+  <si>
+    <t>9|10|11</t>
+  </si>
+  <si>
+    <t>1-6重炮破晓-常规</t>
+  </si>
+  <si>
+    <t>(7,0)|(8,0)</t>
+  </si>
+  <si>
+    <t>(44,19)</t>
+  </si>
+  <si>
+    <t>(49,6)|(0,6)</t>
+  </si>
+  <si>
+    <t>↓→角刷怪点</t>
+  </si>
+  <si>
+    <t>(49,27)|(0,7)</t>
+  </si>
+  <si>
+    <t>(44,20)</t>
   </si>
   <si>
     <t>这个点用来配置地图波数配置
@@ -371,6 +611,9 @@
     <t>波次名称</t>
   </si>
   <si>
+    <t>单位组间隔时间</t>
+  </si>
+  <si>
     <t>刷新单位组
 (单位组id1,刷新次数1)|(单位组id2,刷新次数2)</t>
   </si>
@@ -387,16 +630,160 @@
     <t>第一波</t>
   </si>
   <si>
-    <t>(1,2)|(2,4)</t>
+    <t>(9002,1)|(9001,1)</t>
   </si>
   <si>
     <t>第二波</t>
   </si>
   <si>
-    <t>(1,1)|(2,1)</t>
-  </si>
-  <si>
-    <t>（666,50）</t>
+    <t>(7001,1)|(7002,1)|(8001,1)|(8002,1)</t>
+  </si>
+  <si>
+    <t>(8001,1)</t>
+  </si>
+  <si>
+    <t>(8001,2)</t>
+  </si>
+  <si>
+    <t>第1波</t>
+  </si>
+  <si>
+    <t>第2波</t>
+  </si>
+  <si>
+    <t>第3波</t>
+  </si>
+  <si>
+    <t>第4波</t>
+  </si>
+  <si>
+    <t>第5波</t>
+  </si>
+  <si>
+    <t>第6波</t>
+  </si>
+  <si>
+    <t>第7波</t>
+  </si>
+  <si>
+    <t>第8波</t>
+  </si>
+  <si>
+    <t>第9波</t>
+  </si>
+  <si>
+    <t>第10波</t>
+  </si>
+  <si>
+    <t>第11波</t>
+  </si>
+  <si>
+    <t>第12波</t>
+  </si>
+  <si>
+    <t>(9002,40)|(9001,40)</t>
+  </si>
+  <si>
+    <t>(7001,100)</t>
+  </si>
+  <si>
+    <t>(8001,100)</t>
+  </si>
+  <si>
+    <t>(8002,100)</t>
+  </si>
+  <si>
+    <t>(1,10)|(8007,2)|(10001,1)|(10003,1)</t>
+  </si>
+  <si>
+    <t>(1,10)|(8007,2)</t>
+  </si>
+  <si>
+    <t>(1,11)</t>
+  </si>
+  <si>
+    <t>(1,12)</t>
+  </si>
+  <si>
+    <t>(1,13)</t>
+  </si>
+  <si>
+    <t>(1,14)</t>
+  </si>
+  <si>
+    <t>(1,15)</t>
+  </si>
+  <si>
+    <t>(1,16)</t>
+  </si>
+  <si>
+    <t>(1,17)</t>
+  </si>
+  <si>
+    <t>(1,10)</t>
+  </si>
+  <si>
+    <t>(1,20)</t>
+  </si>
+  <si>
+    <t>(1,25)</t>
+  </si>
+  <si>
+    <t>(1,30)</t>
+  </si>
+  <si>
+    <t>(1,35)</t>
+  </si>
+  <si>
+    <t>(1,40)</t>
+  </si>
+  <si>
+    <t>(1,50)|(9001,1)</t>
+  </si>
+  <si>
+    <t>(1,60)|(9001,2)</t>
+  </si>
+  <si>
+    <t>(1,70)|(9001,3)</t>
+  </si>
+  <si>
+    <t>(1,30)|(9001,1)</t>
+  </si>
+  <si>
+    <t>(1,40)|(9001,2)</t>
+  </si>
+  <si>
+    <t>(1,50)|(9001,3)</t>
+  </si>
+  <si>
+    <t>(1,50)|(9002,1)</t>
+  </si>
+  <si>
+    <t>(1,50)|(9002,3)</t>
+  </si>
+  <si>
+    <t>(1,50)|(9002,5)</t>
+  </si>
+  <si>
+    <t>(7009,10)</t>
+  </si>
+  <si>
+    <t>(1,18)</t>
+  </si>
+  <si>
+    <t>(1,19)</t>
+  </si>
+  <si>
+    <t>(7010,10)</t>
+  </si>
+  <si>
+    <t>(2,100)</t>
+  </si>
+  <si>
+    <t>(1,10)|(2,10)</t>
+  </si>
+  <si>
+    <t>拥有爬行单位</t>
   </si>
   <si>
     <t>该表保存单位组配置，
@@ -425,6 +812,9 @@
 (最小刷新量，最大刷新量)</t>
   </si>
   <si>
+    <t>单位与单位之间刷新间隔（帧数）</t>
+  </si>
+  <si>
     <t>GroupId</t>
   </si>
   <si>
@@ -443,58 +833,253 @@
     <t>#CountInterval</t>
   </si>
   <si>
+    <t>&lt;2&gt;#Interval</t>
+  </si>
+  <si>
     <t>(INT)</t>
   </si>
   <si>
-    <t>小规模敌军1</t>
-  </si>
-  <si>
-    <t>测试小组1</t>
-  </si>
-  <si>
-    <t>测试小组1接近战场</t>
-  </si>
-  <si>
-    <t>(1001,4)|(1002,1)</t>
-  </si>
-  <si>
-    <t>(2,2)</t>
-  </si>
-  <si>
-    <t>小规模敌军2</t>
-  </si>
-  <si>
-    <t>测试小组2</t>
-  </si>
-  <si>
-    <t>测试小组2接近战场</t>
-  </si>
-  <si>
-    <t>(1001,1)</t>
-  </si>
-  <si>
-    <t>中等规模敌军1</t>
-  </si>
-  <si>
-    <t>测试小组3</t>
-  </si>
-  <si>
-    <t>测试小组3接近战场</t>
-  </si>
-  <si>
-    <t>大批敌军1</t>
-  </si>
-  <si>
-    <t>测试小组4</t>
-  </si>
-  <si>
-    <t>测试小组4接近战场</t>
-  </si>
-  <si>
-    <t>(700001,1)|(700002,1)|(700003,1)|(700004,1)|(700005,1)</t>
+    <t>装甲人形</t>
+  </si>
+  <si>
+    <t>小型，近战，物理，拥有装甲，防御力强</t>
+  </si>
+  <si>
+    <t>(7001,1)</t>
   </si>
   <si>
     <t>(1,1)</t>
+  </si>
+  <si>
+    <t>自爆人形</t>
+  </si>
+  <si>
+    <t>小型，近战，爆炸，靠近目标后会爆炸，产生小范围的爆炸伤害</t>
+  </si>
+  <si>
+    <t>(7002,1)</t>
+  </si>
+  <si>
+    <t>好战者</t>
+  </si>
+  <si>
+    <t>中型，近战</t>
+  </si>
+  <si>
+    <t>(7003,1)</t>
+  </si>
+  <si>
+    <t>翻越者</t>
+  </si>
+  <si>
+    <t>(7006,1)</t>
+  </si>
+  <si>
+    <t>刺击者</t>
+  </si>
+  <si>
+    <t>(7009,1)</t>
+  </si>
+  <si>
+    <t>胶囊</t>
+  </si>
+  <si>
+    <t>中型，近战，重生</t>
+  </si>
+  <si>
+    <t>(7010,1)</t>
+  </si>
+  <si>
+    <t>作战人形</t>
+  </si>
+  <si>
+    <t>中程</t>
+  </si>
+  <si>
+    <t>射手人形</t>
+  </si>
+  <si>
+    <t>成群结队，远程，物理，装备双枪，会持续射击</t>
+  </si>
+  <si>
+    <t>(8002,1)</t>
+  </si>
+  <si>
+    <t>枪手</t>
+  </si>
+  <si>
+    <t>中型，远程</t>
+  </si>
+  <si>
+    <t>(8003,1)</t>
+  </si>
+  <si>
+    <t>等离子</t>
+  </si>
+  <si>
+    <t>极远程,等离子激光</t>
+  </si>
+  <si>
+    <t>超远程攻击，是大多数炮塔的梦魇，本体脆弱，可尝试用道具消灭</t>
+  </si>
+  <si>
+    <t>(8004,1)</t>
+  </si>
+  <si>
+    <t>速射战车</t>
+  </si>
+  <si>
+    <t>中小型,速射炮</t>
+  </si>
+  <si>
+    <t>轻型机动车辆，装备一门速射炮，可以快速突破防线</t>
+  </si>
+  <si>
+    <t>(8005,1)</t>
+  </si>
+  <si>
+    <t>臼炮战车</t>
+  </si>
+  <si>
+    <t>中小型,火力臼炮</t>
+  </si>
+  <si>
+    <t>轻型机动车辆，装备火力臼炮，快速抵达目标周围进行火力输出</t>
+  </si>
+  <si>
+    <t>(8006,1)</t>
+  </si>
+  <si>
+    <t>怒火级陆行舰</t>
+  </si>
+  <si>
+    <t>一种来自远古的沙漠陆行舰设计，在沙漠中运输的高效手段，如今上方已经搭载了大量的火力炮塔，随时作战</t>
+  </si>
+  <si>
+    <t>(8007,1)</t>
+  </si>
+  <si>
+    <t>冲击钻头</t>
+  </si>
+  <si>
+    <t>中型，攻城</t>
+  </si>
+  <si>
+    <t>(9001,1)</t>
+  </si>
+  <si>
+    <t>推土机</t>
+  </si>
+  <si>
+    <t>中型，攻城，护甲</t>
+  </si>
+  <si>
+    <t>(9002,1)</t>
+  </si>
+  <si>
+    <t>小型作战军团1号</t>
+  </si>
+  <si>
+    <t>前期用，小型</t>
+  </si>
+  <si>
+    <t>内含少量的装甲人形和较多的作战人形</t>
+  </si>
+  <si>
+    <t>(7001,2)|(8001,5)</t>
+  </si>
+  <si>
+    <t>中型测试组</t>
+  </si>
+  <si>
+    <t>好战者，翻越者，刺击者，枪手</t>
+  </si>
+  <si>
+    <t>(7003,1)|(7006,1)|(7009,1)|(8003,1)|(8004,1)|(8005,1)|(8006,1)</t>
+  </si>
+  <si>
+    <t>干扰体</t>
+  </si>
+  <si>
+    <t>(10001,1)</t>
+  </si>
+  <si>
+    <t>侦测者</t>
+  </si>
+  <si>
+    <t>(10003,1)</t>
+  </si>
+  <si>
+    <t>加固侦测者</t>
+  </si>
+  <si>
+    <t>(10004,1)</t>
+  </si>
+  <si>
+    <t>干扰侦测者</t>
+  </si>
+  <si>
+    <t>(10005,1)</t>
+  </si>
+  <si>
+    <t>导弹攻坚者</t>
+  </si>
+  <si>
+    <t>(10006,1)</t>
+  </si>
+  <si>
+    <t>大型导弹攻坚者</t>
+  </si>
+  <si>
+    <t>(10007,1)</t>
+  </si>
+  <si>
+    <t>小型炮艇</t>
+  </si>
+  <si>
+    <t>(10008,1)</t>
+  </si>
+  <si>
+    <t>大型炮艇</t>
+  </si>
+  <si>
+    <t>(10009,1)</t>
+  </si>
+  <si>
+    <t>旋翼</t>
+  </si>
+  <si>
+    <t>(10019,1)</t>
+  </si>
+  <si>
+    <t>大型旋翼</t>
+  </si>
+  <si>
+    <t>(10020,1)</t>
+  </si>
+  <si>
+    <t>自毁者</t>
+  </si>
+  <si>
+    <t>(10023,1)</t>
+  </si>
+  <si>
+    <t>磁壳自毁者</t>
+  </si>
+  <si>
+    <t>(10024,1)</t>
+  </si>
+  <si>
+    <t>重投轰炸机</t>
+  </si>
+  <si>
+    <t>(10025,1)</t>
+  </si>
+  <si>
+    <t>运输飞艇A型</t>
+  </si>
+  <si>
+    <t>(10031,1)</t>
   </si>
   <si>
     <t>字段导出设置
@@ -705,9 +1290,6 @@
     <t>语言id 是语言配置的id</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>POINT</t>
   </si>
   <si>
@@ -741,9 +1323,6 @@
     <t>Png图片，通常用于导出散图，导出单元格图片后，放在config\images\下</t>
   </si>
   <si>
-    <t>Vector2I</t>
-  </si>
-  <si>
     <t>整数类型的二维坐标</t>
   </si>
   <si>
@@ -799,9 +1378,6 @@
   </si>
   <si>
     <t>确保唯一的Int列表，c#中的HashSet&lt;int&gt;类型</t>
-  </si>
-  <si>
-    <t>1|2|3|4</t>
   </si>
 </sst>
 </file>
@@ -814,7 +1390,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -841,6 +1417,26 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1002,7 +1598,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1017,13 +1613,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF75BD42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,12 +1721,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1114,12 +1734,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,12 +1822,148 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="21">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1334,137 +2084,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1492,31 +2242,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1528,34 +2302,85 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1883,34 +2708,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="43.375" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="25.8583333333333" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="9" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="43.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="32.4083333333333" style="7" customWidth="1"/>
+    <col min="5" max="6" width="25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="25.8583333333333" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16" style="7" customWidth="1"/>
+    <col min="9" max="10" width="33.625" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="114" spans="1:9">
-      <c r="A1" s="27" t="s">
+    <row r="1" ht="114" spans="1:10">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -1928,121 +2755,427 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="16" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="17">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8">
+    </row>
+    <row r="2" ht="14.25" spans="1:10">
+      <c r="A2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="24">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
         <v>2</v>
       </c>
-      <c r="E2" s="28">
+      <c r="F2" s="55">
         <v>2</v>
       </c>
-      <c r="F2" s="28">
+      <c r="G2" s="55">
         <v>2</v>
       </c>
-      <c r="G2" s="28">
+      <c r="H2" s="55">
         <v>2</v>
       </c>
-      <c r="H2" s="28">
+      <c r="I2" s="55">
         <v>2</v>
       </c>
-      <c r="I2" s="28">
+      <c r="J2" s="55">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:9">
-      <c r="A3" s="16" t="s">
+    <row r="3" ht="14.25" spans="1:10">
+      <c r="A3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:10">
+      <c r="A4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" s="53" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A5" s="28">
+        <v>1</v>
+      </c>
+      <c r="B5" s="28">
+        <v>1</v>
+      </c>
+      <c r="C5" s="28">
+        <v>1</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0</v>
+      </c>
+      <c r="F5" s="28">
+        <v>2</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" s="53" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A6" s="28">
+        <v>1</v>
+      </c>
+      <c r="B6" s="28">
+        <v>1</v>
+      </c>
+      <c r="C6" s="28">
+        <v>2</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0</v>
+      </c>
+      <c r="F6" s="28">
+        <v>2</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:10">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:10">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
         <v>10</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="I8" s="30"/>
+      <c r="J8" s="7">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>101</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>8</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>15</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7">
+        <v>102</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>10</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
+        <v>15</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>103</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>10</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7">
+        <v>15</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>104</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
         <v>11</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
+        <v>15</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>105</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
+        <v>15</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7">
+        <v>106</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7">
+        <v>15</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>107</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="28" t="s">
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7">
         <v>15</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:9">
-      <c r="A4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:9">
-      <c r="A5" s="29">
-        <v>2</v>
-      </c>
-      <c r="B5" s="29">
-        <v>1</v>
-      </c>
-      <c r="C5" s="29">
-        <v>1</v>
-      </c>
-      <c r="D5" s="29">
-        <v>0</v>
-      </c>
-      <c r="E5" s="29">
-        <v>2</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2054,164 +3187,642 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="36.7666666666667" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="16.8416666666667" customWidth="1"/>
-    <col min="4" max="4" width="33.7916666666667" customWidth="1"/>
+    <col min="1" max="1" width="36.7666666666667" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.725" style="7" customWidth="1"/>
+    <col min="4" max="4" width="45.425" style="7" customWidth="1"/>
     <col min="5" max="5" width="18.5833333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.775" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="126" customHeight="1" spans="1:5">
-      <c r="A1" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="17">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17">
+    <row r="1" ht="126" customHeight="1" spans="1:6">
+      <c r="A1" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="24">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24">
         <v>0</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="24">
         <v>2</v>
       </c>
       <c r="E2" s="8">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>34</v>
+    <row r="3" spans="1:6">
+      <c r="A3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="16" t="s">
-        <v>19</v>
+        <v>53</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" s="21" customFormat="1" spans="1:5">
-      <c r="A5" s="21">
-        <v>1</v>
-      </c>
-      <c r="B5" s="21">
-        <v>1</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" s="20" customFormat="1" spans="1:5">
-      <c r="A6" s="21">
-        <v>1</v>
-      </c>
-      <c r="B6" s="21">
+        <v>56</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" s="29" customFormat="1" spans="1:6">
+      <c r="A5" s="29">
+        <v>1</v>
+      </c>
+      <c r="B5" s="29">
+        <v>1</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" s="28" customFormat="1" spans="1:6">
+      <c r="A6" s="29">
+        <v>1</v>
+      </c>
+      <c r="B6" s="29">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" s="20" customFormat="1" spans="1:5">
-      <c r="A7" s="21">
-        <v>1</v>
-      </c>
-      <c r="B7" s="21">
+      <c r="C6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" s="28" customFormat="1" spans="1:6">
+      <c r="A7" s="29">
+        <v>1</v>
+      </c>
+      <c r="B7" s="29">
         <v>3</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:5">
-      <c r="A8" s="21">
-        <v>1</v>
-      </c>
-      <c r="B8" s="21">
+      <c r="C7" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:6">
+      <c r="A8" s="29">
+        <v>1</v>
+      </c>
+      <c r="B8" s="29">
         <v>4</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1"/>
-    <row r="10" s="3" customFormat="1"/>
+      <c r="C8" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:6">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:6">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="11" s="3" customFormat="1"/>
-    <row r="12" s="3" customFormat="1"/>
+    <row r="12" s="3" customFormat="1" ht="15" spans="1:6">
+      <c r="A12" s="29">
+        <v>1</v>
+      </c>
+      <c r="B12" s="29">
+        <v>10001</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="15" spans="1:6">
+      <c r="A13" s="31">
+        <v>0</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:6">
+      <c r="A14" s="29">
+        <v>1</v>
+      </c>
+      <c r="B14" s="29">
+        <v>10101</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:6">
+      <c r="A15" s="29">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10102</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:6">
+      <c r="A17" s="31">
+        <v>0</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="41">
+        <v>1</v>
+      </c>
+      <c r="B18" s="42">
+        <v>10201</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="45">
+        <v>1</v>
+      </c>
+      <c r="B19" s="46">
+        <v>10202</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:6">
+      <c r="A20" s="49">
+        <v>1</v>
+      </c>
+      <c r="B20" s="50">
+        <v>10203</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:6">
+      <c r="A21" s="49">
+        <v>1</v>
+      </c>
+      <c r="B21" s="50">
+        <v>10204</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="31">
+        <v>0</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="29">
+        <v>1</v>
+      </c>
+      <c r="B24" s="29">
+        <v>10301</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="29">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3">
+        <v>10302</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="31">
+        <v>0</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="29">
+        <v>1</v>
+      </c>
+      <c r="B28" s="7">
+        <v>10401</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="29">
+        <v>1</v>
+      </c>
+      <c r="B29" s="7">
+        <v>10402</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:6">
+      <c r="A30" s="29">
+        <v>1</v>
+      </c>
+      <c r="B30" s="7">
+        <v>10403</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:6">
+      <c r="A31" s="31">
+        <v>0</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="F31" s="29"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="29">
+        <v>1</v>
+      </c>
+      <c r="B32" s="7">
+        <v>10501</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="29">
+        <v>1</v>
+      </c>
+      <c r="B33" s="7">
+        <v>10502</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:6">
+      <c r="A34" s="29">
+        <v>1</v>
+      </c>
+      <c r="B34" s="7">
+        <v>10503</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="31">
+        <v>0</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="29">
+        <v>1</v>
+      </c>
+      <c r="B36" s="7">
+        <v>10601</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="29">
+        <v>1</v>
+      </c>
+      <c r="B37" s="7">
+        <v>10602</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="29">
+        <v>1</v>
+      </c>
+      <c r="B38" s="7">
+        <v>10603</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -2223,200 +3834,3265 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H194"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="43.375" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="28.125" customWidth="1"/>
-    <col min="4" max="4" width="14.4583333333333" customWidth="1"/>
-    <col min="5" max="5" width="30.5833333333333" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="4" max="5" width="14.4583333333333" customWidth="1"/>
+    <col min="6" max="6" width="30.5833333333333" style="16" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="137" customHeight="1" spans="1:5">
-      <c r="A1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="16" t="s">
+    <row r="1" ht="137" customHeight="1" spans="1:6">
+      <c r="A1" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:8">
+      <c r="A2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="24">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="24">
+        <v>2</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:6">
+      <c r="A3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:6">
+      <c r="A4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" s="15" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A5" s="28">
+        <v>1</v>
+      </c>
+      <c r="B5" s="29">
+        <v>1</v>
+      </c>
+      <c r="C5" s="28">
+        <v>1</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" s="15" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A6" s="28">
+        <v>1</v>
+      </c>
+      <c r="B6" s="28">
+        <v>1</v>
+      </c>
+      <c r="C6" s="28">
+        <v>2</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="6:6">
+      <c r="F7"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:6">
+      <c r="A8" s="28">
+        <v>1</v>
+      </c>
+      <c r="B8" s="29">
+        <v>2</v>
+      </c>
+      <c r="C8" s="28">
+        <v>1</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:6">
+      <c r="A9" s="28">
+        <v>1</v>
+      </c>
+      <c r="B9" s="28">
+        <v>2</v>
+      </c>
+      <c r="C9" s="28">
+        <v>2</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="30"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:6">
+      <c r="A11" s="28">
+        <v>1</v>
+      </c>
+      <c r="B11" s="29">
+        <v>3</v>
+      </c>
+      <c r="C11" s="28">
+        <v>1</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="30"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:6">
+      <c r="A12" s="28">
+        <v>1</v>
+      </c>
+      <c r="B12" s="28">
+        <v>3</v>
+      </c>
+      <c r="C12" s="28">
+        <v>2</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:6">
+      <c r="A13" s="28">
+        <v>1</v>
+      </c>
+      <c r="B13" s="29">
+        <v>4</v>
+      </c>
+      <c r="C13" s="28">
+        <v>1</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:6">
+      <c r="A14" s="28">
+        <v>1</v>
+      </c>
+      <c r="B14" s="29">
+        <v>4</v>
+      </c>
+      <c r="C14" s="28">
+        <v>2</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:6">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:6">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:6">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:6">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:6">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:6">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:6">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:6">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:6">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
         <v>9</v>
       </c>
-      <c r="B2" s="17">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17">
+      <c r="D25" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:6">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:6">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:6">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:6">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:6">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:6">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:6">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:6">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:6">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="28"/>
+      <c r="F34" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="1:6">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>10001</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="28"/>
+      <c r="F37" s="30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:6">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>10001</v>
+      </c>
+      <c r="C38">
         <v>2</v>
       </c>
-      <c r="E2" s="18">
+      <c r="D38" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="28"/>
+      <c r="F38" s="30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:6">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>10001</v>
+      </c>
+      <c r="C39">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="16" t="s">
+      <c r="D39" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="28"/>
+      <c r="F39" s="30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="1:6">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>10001</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="28"/>
+      <c r="F40" s="30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="1:3">
+      <c r="A41" s="31">
+        <v>0</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" ht="15" spans="1:8">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" s="33">
+        <v>10101</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" s="28"/>
+      <c r="F42" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="1:8">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" s="33">
+        <v>10101</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" s="28"/>
+      <c r="F43" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="1:8">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" s="33">
+        <v>10101</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="28"/>
+      <c r="F44" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="1:8">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" s="33">
+        <v>10101</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="28"/>
+      <c r="F45" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="1:8">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" s="33">
+        <v>10101</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="28"/>
+      <c r="F46" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="1:8">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" s="33">
+        <v>10101</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="28"/>
+      <c r="F47" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="1:8">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" s="33">
+        <v>10101</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="28"/>
+      <c r="F48" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" ht="15" spans="1:8">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" s="33">
+        <v>10101</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" s="28"/>
+      <c r="F49" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" ht="15" spans="1:8">
+      <c r="A50" s="31">
+        <v>0</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50" s="16"/>
+    </row>
+    <row r="51" ht="15" spans="1:8">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" s="33">
+        <v>10102</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="28"/>
+      <c r="F51" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" ht="15" spans="1:8">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" s="33">
+        <v>10102</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" s="28"/>
+      <c r="F52" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" ht="15" spans="1:8">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" s="33">
+        <v>10102</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" s="28"/>
+      <c r="F53" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="H53" s="30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" ht="15" spans="1:8">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" s="33">
+        <v>10102</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E54" s="28"/>
+      <c r="F54" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="H54" s="30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" ht="15" spans="1:8">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" s="33">
+        <v>10102</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" s="28"/>
+      <c r="F55" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="H55" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" ht="15" spans="1:8">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" s="33">
+        <v>10102</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" s="28"/>
+      <c r="F56" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="H56" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" ht="15" spans="1:8">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" s="33">
+        <v>10102</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="28"/>
+      <c r="F57" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="H57" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" spans="1:8">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" s="33">
+        <v>10102</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" s="28"/>
+      <c r="F58" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="H58" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" spans="4:6">
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="30"/>
+    </row>
+    <row r="60" ht="14.25" spans="4:6">
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="30"/>
+    </row>
+    <row r="61" ht="14.25"/>
+    <row r="62" ht="15" spans="1:6">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" s="33">
+        <v>10201</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" s="28"/>
+      <c r="F62" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" ht="15" spans="1:6">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" s="33">
+        <v>10201</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" ht="15" spans="1:6">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" s="33">
+        <v>10201</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" ht="15" spans="1:6">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" s="33">
+        <v>10201</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" ht="15" spans="1:6">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" s="33">
+        <v>10201</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" ht="15" spans="1:6">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" s="33">
+        <v>10201</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" ht="15" spans="1:6">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" s="33">
+        <v>10201</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" ht="15" spans="1:6">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" s="33">
+        <v>10201</v>
+      </c>
+      <c r="C69">
+        <v>8</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" ht="15" spans="1:6">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" s="33">
+        <v>10201</v>
+      </c>
+      <c r="C70">
+        <v>9</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25" spans="1:6">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" s="33">
+        <v>10201</v>
+      </c>
+      <c r="C71">
         <v>10</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" s="9" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A5" s="20">
-        <v>1</v>
-      </c>
-      <c r="B5" s="21">
-        <v>1</v>
-      </c>
-      <c r="C5" s="20">
-        <v>1</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" s="9" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A6" s="20">
-        <v>1</v>
-      </c>
-      <c r="B6" s="20">
-        <v>1</v>
-      </c>
-      <c r="C6" s="20">
+      <c r="D71" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" spans="1:6">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" s="34">
+        <v>10202</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" spans="1:6">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" s="34">
+        <v>10202</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F73" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" spans="1:6">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" s="34">
+        <v>10202</v>
+      </c>
+      <c r="C74">
+        <v>6</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25" spans="1:6">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" s="34">
+        <v>10202</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25" spans="1:6">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76" s="34">
+        <v>10202</v>
+      </c>
+      <c r="C76">
+        <v>8</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25" spans="1:6">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" s="34">
+        <v>10202</v>
+      </c>
+      <c r="C77">
+        <v>9</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F77" s="30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25" spans="1:6">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" s="34">
+        <v>10202</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" s="30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" ht="15" spans="1:6">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" s="35">
+        <v>10203</v>
+      </c>
+      <c r="C79">
+        <v>8</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F79" s="30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" ht="15" spans="1:6">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" s="35">
+        <v>10203</v>
+      </c>
+      <c r="C80">
+        <v>9</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F80" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" ht="15" spans="1:6">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81" s="35">
+        <v>10203</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="F81" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" ht="15" spans="1:6">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" s="35">
+        <v>10204</v>
+      </c>
+      <c r="C82">
+        <v>8</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F82" s="30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" ht="15" spans="1:6">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" s="35">
+        <v>10204</v>
+      </c>
+      <c r="C83">
+        <v>9</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" ht="15" spans="1:6">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84" s="35">
+        <v>10204</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="F84" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25"/>
+    <row r="86" ht="15" spans="1:3">
+      <c r="A86" s="31">
+        <v>0</v>
+      </c>
+      <c r="B86" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" ht="15" spans="1:6">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" s="33">
+        <v>10301</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E87" s="28"/>
+      <c r="F87" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" ht="15" spans="1:6">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" s="33">
+        <v>10301</v>
+      </c>
+      <c r="C88">
         <v>2</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:5">
-      <c r="A8" s="20">
-        <v>1</v>
-      </c>
-      <c r="B8" s="21">
+      <c r="D88" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E88" s="28"/>
+      <c r="F88" s="30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" ht="15" spans="1:6">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" s="33">
+        <v>10301</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E89" s="28"/>
+      <c r="F89" s="30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="90" ht="15" spans="1:6">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" s="33">
+        <v>10301</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E90" s="28"/>
+      <c r="F90" s="30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="91" ht="15" spans="1:6">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" s="33">
+        <v>10301</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E91" s="28"/>
+      <c r="F91" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" ht="15" spans="1:6">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" s="33">
+        <v>10301</v>
+      </c>
+      <c r="C92">
+        <v>6</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E92" s="28"/>
+      <c r="F92" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" ht="15" spans="1:6">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" s="33">
+        <v>10301</v>
+      </c>
+      <c r="C93">
+        <v>7</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E93" s="28"/>
+      <c r="F93" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" ht="15" spans="1:6">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" s="33">
+        <v>10301</v>
+      </c>
+      <c r="C94">
+        <v>8</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E94" s="28"/>
+      <c r="F94" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" ht="15" spans="1:6">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" s="33">
+        <v>10301</v>
+      </c>
+      <c r="C95">
+        <v>9</v>
+      </c>
+      <c r="D95" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E95" s="28"/>
+      <c r="F95" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" ht="15" spans="1:6">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96" s="33">
+        <v>10301</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="D96" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E96" s="28"/>
+      <c r="F96" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="97" ht="15" spans="1:3">
+      <c r="A97" s="31">
+        <v>0</v>
+      </c>
+      <c r="B97" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" ht="15" spans="1:6">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" s="33">
+        <v>10302</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E98" s="28"/>
+      <c r="F98" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" ht="15" spans="1:6">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" s="33">
+        <v>10302</v>
+      </c>
+      <c r="C99">
         <v>2</v>
       </c>
-      <c r="C8" s="20">
-        <v>1</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:5">
-      <c r="A9" s="20">
-        <v>1</v>
-      </c>
-      <c r="B9" s="20">
+      <c r="D99" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E99" s="28"/>
+      <c r="F99" s="30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" ht="15" spans="1:6">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100" s="33">
+        <v>10302</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E100" s="28"/>
+      <c r="F100" s="30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" ht="15" spans="1:6">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" s="33">
+        <v>10302</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E101" s="28"/>
+      <c r="F101" s="30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" ht="15" spans="1:6">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" s="33">
+        <v>10302</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="D102" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E102" s="28"/>
+      <c r="F102" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="103" ht="15" spans="1:6">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" s="33">
+        <v>10302</v>
+      </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
+      <c r="D103" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E103" s="28"/>
+      <c r="F103" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="104" ht="15" spans="1:6">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" s="33">
+        <v>10302</v>
+      </c>
+      <c r="C104">
+        <v>7</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E104" s="28"/>
+      <c r="F104" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" ht="15" spans="1:6">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105" s="33">
+        <v>10302</v>
+      </c>
+      <c r="C105">
+        <v>8</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E105" s="28"/>
+      <c r="F105" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" ht="15" spans="1:6">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106" s="33">
+        <v>10302</v>
+      </c>
+      <c r="C106">
+        <v>9</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E106" s="28"/>
+      <c r="F106" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107" ht="15" spans="1:6">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" s="33">
+        <v>10302</v>
+      </c>
+      <c r="C107">
+        <v>10</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E107" s="28"/>
+      <c r="F107" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="108" ht="15" spans="1:3">
+      <c r="A108" s="31">
+        <v>0</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25" spans="1:6">
+      <c r="A109" s="29">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <v>10401</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E109" s="28"/>
+      <c r="F109" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25" spans="1:6">
+      <c r="A110" s="29">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>10401</v>
+      </c>
+      <c r="C110">
         <v>2</v>
       </c>
-      <c r="C9" s="20">
+      <c r="D110" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E110" s="28"/>
+      <c r="F110" s="30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25" spans="1:6">
+      <c r="A111" s="29">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>10401</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E111" s="28"/>
+      <c r="F111" s="30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25" spans="1:6">
+      <c r="A112" s="29">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <v>10401</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E112" s="28"/>
+      <c r="F112" s="30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25" spans="1:6">
+      <c r="A113" s="29">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>10401</v>
+      </c>
+      <c r="C113">
+        <v>5</v>
+      </c>
+      <c r="D113" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E113" s="28"/>
+      <c r="F113" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25" spans="1:6">
+      <c r="A114" s="29">
+        <v>1</v>
+      </c>
+      <c r="B114">
+        <v>10401</v>
+      </c>
+      <c r="C114">
+        <v>6</v>
+      </c>
+      <c r="D114" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E114" s="28"/>
+      <c r="F114" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25" spans="1:6">
+      <c r="A115" s="29">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>10401</v>
+      </c>
+      <c r="C115">
+        <v>7</v>
+      </c>
+      <c r="D115" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E115" s="28"/>
+      <c r="F115" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25" spans="1:6">
+      <c r="A116" s="29">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>10401</v>
+      </c>
+      <c r="C116">
+        <v>8</v>
+      </c>
+      <c r="D116" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E116" s="28"/>
+      <c r="F116" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25" spans="1:6">
+      <c r="A117" s="29">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>10401</v>
+      </c>
+      <c r="C117">
+        <v>9</v>
+      </c>
+      <c r="D117" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E117" s="28"/>
+      <c r="F117" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118" ht="15" spans="1:6">
+      <c r="A118" s="29">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>10401</v>
+      </c>
+      <c r="C118">
+        <v>10</v>
+      </c>
+      <c r="D118" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E118" s="28"/>
+      <c r="F118" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" ht="15" spans="1:3">
+      <c r="A119" s="31">
+        <v>0</v>
+      </c>
+      <c r="B119" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C119" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25" spans="1:6">
+      <c r="A120" s="29">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>10402</v>
+      </c>
+      <c r="C120">
+        <v>6</v>
+      </c>
+      <c r="D120" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E120" s="28"/>
+      <c r="F120" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25" spans="1:6">
+      <c r="A121" s="29">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>10402</v>
+      </c>
+      <c r="C121">
+        <v>7</v>
+      </c>
+      <c r="D121" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E121" s="28"/>
+      <c r="F121" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25" spans="1:6">
+      <c r="A122" s="29">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>10402</v>
+      </c>
+      <c r="C122">
+        <v>8</v>
+      </c>
+      <c r="D122" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E122" s="28"/>
+      <c r="F122" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25" spans="1:6">
+      <c r="A123" s="29">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>10402</v>
+      </c>
+      <c r="C123">
+        <v>9</v>
+      </c>
+      <c r="D123" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E123" s="28"/>
+      <c r="F123" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25" spans="1:6">
+      <c r="A124" s="29">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>10402</v>
+      </c>
+      <c r="C124">
+        <v>10</v>
+      </c>
+      <c r="D124" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E124" s="28"/>
+      <c r="F124" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="125" ht="15" spans="1:6">
+      <c r="A125" s="29">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>10402</v>
+      </c>
+      <c r="C125">
+        <v>11</v>
+      </c>
+      <c r="D125" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E125" s="28"/>
+      <c r="F125" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" ht="15" spans="1:3">
+      <c r="A126" s="31">
+        <v>0</v>
+      </c>
+      <c r="B126" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C126" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25" spans="1:6">
+      <c r="A127" s="29">
+        <v>1</v>
+      </c>
+      <c r="B127">
+        <v>10403</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E127" s="28"/>
+      <c r="F127" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25" spans="1:6">
+      <c r="A128" s="29">
+        <v>1</v>
+      </c>
+      <c r="B128">
+        <v>10403</v>
+      </c>
+      <c r="C128">
         <v>2</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:5">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:5">
-      <c r="A13" s="20">
-        <v>1</v>
-      </c>
-      <c r="B13" s="21">
+      <c r="D128" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E128" s="28"/>
+      <c r="F128" s="30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="129" ht="14.25" spans="1:6">
+      <c r="A129" s="29">
+        <v>1</v>
+      </c>
+      <c r="B129">
+        <v>10403</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E129" s="28"/>
+      <c r="F129" s="30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" ht="14.25" spans="1:6">
+      <c r="A130" s="29">
+        <v>1</v>
+      </c>
+      <c r="B130">
+        <v>10403</v>
+      </c>
+      <c r="C130">
         <v>4</v>
       </c>
-      <c r="C13" s="20">
-        <v>1</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:5">
-      <c r="A14" s="20">
-        <v>1</v>
-      </c>
-      <c r="B14" s="21">
+      <c r="D130" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E130" s="28"/>
+      <c r="F130" s="30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25" spans="1:6">
+      <c r="A131" s="29">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>10403</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E131" s="28"/>
+      <c r="F131" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" ht="14.25" spans="1:6">
+      <c r="A132" s="29">
+        <v>1</v>
+      </c>
+      <c r="B132">
+        <v>10403</v>
+      </c>
+      <c r="C132">
+        <v>6</v>
+      </c>
+      <c r="D132" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E132" s="28"/>
+      <c r="F132" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25" spans="1:6">
+      <c r="A133" s="29">
+        <v>1</v>
+      </c>
+      <c r="B133">
+        <v>10403</v>
+      </c>
+      <c r="C133">
+        <v>7</v>
+      </c>
+      <c r="D133" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E133" s="28"/>
+      <c r="F133" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25" spans="1:6">
+      <c r="A134" s="29">
+        <v>1</v>
+      </c>
+      <c r="B134">
+        <v>10403</v>
+      </c>
+      <c r="C134">
+        <v>8</v>
+      </c>
+      <c r="D134" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E134" s="28"/>
+      <c r="F134" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25" spans="1:6">
+      <c r="A135" s="29">
+        <v>1</v>
+      </c>
+      <c r="B135">
+        <v>10403</v>
+      </c>
+      <c r="C135">
+        <v>9</v>
+      </c>
+      <c r="D135" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E135" s="28"/>
+      <c r="F135" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136" ht="15" spans="1:6">
+      <c r="A136" s="29">
+        <v>1</v>
+      </c>
+      <c r="B136">
+        <v>10403</v>
+      </c>
+      <c r="C136">
+        <v>10</v>
+      </c>
+      <c r="D136" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E136" s="28"/>
+      <c r="F136" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="137" ht="15" spans="1:3">
+      <c r="A137" s="31">
+        <v>0</v>
+      </c>
+      <c r="B137" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C137" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25" spans="1:6">
+      <c r="A138" s="29">
+        <v>1</v>
+      </c>
+      <c r="B138" s="7">
+        <v>10501</v>
+      </c>
+      <c r="C138">
+        <v>5</v>
+      </c>
+      <c r="D138" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E138" s="28"/>
+      <c r="F138" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25" spans="1:6">
+      <c r="A139" s="29">
+        <v>1</v>
+      </c>
+      <c r="B139" s="7">
+        <v>10501</v>
+      </c>
+      <c r="C139">
+        <v>6</v>
+      </c>
+      <c r="D139" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E139" s="28"/>
+      <c r="F139" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140" ht="14.25" spans="1:6">
+      <c r="A140" s="29">
+        <v>1</v>
+      </c>
+      <c r="B140" s="7">
+        <v>10501</v>
+      </c>
+      <c r="C140">
+        <v>7</v>
+      </c>
+      <c r="D140" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E140" s="28"/>
+      <c r="F140" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25" spans="1:6">
+      <c r="A141" s="29">
+        <v>1</v>
+      </c>
+      <c r="B141" s="7">
+        <v>10501</v>
+      </c>
+      <c r="C141">
+        <v>8</v>
+      </c>
+      <c r="D141" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E141" s="28"/>
+      <c r="F141" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="142" ht="14.25" spans="1:6">
+      <c r="A142" s="29">
+        <v>1</v>
+      </c>
+      <c r="B142" s="7">
+        <v>10501</v>
+      </c>
+      <c r="C142">
+        <v>9</v>
+      </c>
+      <c r="D142" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E142" s="28"/>
+      <c r="F142" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" ht="14.25" spans="1:6">
+      <c r="A143" s="29">
+        <v>1</v>
+      </c>
+      <c r="B143" s="7">
+        <v>10501</v>
+      </c>
+      <c r="C143">
+        <v>10</v>
+      </c>
+      <c r="D143" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E143" s="28"/>
+      <c r="F143" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="144" ht="15" spans="1:6">
+      <c r="A144" s="29">
+        <v>1</v>
+      </c>
+      <c r="B144" s="7">
+        <v>10501</v>
+      </c>
+      <c r="C144">
+        <v>11</v>
+      </c>
+      <c r="D144" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E144" s="28"/>
+      <c r="F144" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="145" ht="15" spans="1:3">
+      <c r="A145" s="31">
+        <v>0</v>
+      </c>
+      <c r="B145" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C145" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="146" ht="14.25" spans="1:6">
+      <c r="A146" s="29">
+        <v>1</v>
+      </c>
+      <c r="B146" s="7">
+        <v>10502</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E146" s="28"/>
+      <c r="F146" s="30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="147" ht="14.25" spans="1:6">
+      <c r="A147" s="29">
+        <v>1</v>
+      </c>
+      <c r="B147" s="7">
+        <v>10502</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E147" s="28"/>
+      <c r="F147" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148" ht="14.25" spans="1:6">
+      <c r="A148" s="29">
+        <v>1</v>
+      </c>
+      <c r="B148" s="7">
+        <v>10502</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+      <c r="D148" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E148" s="28"/>
+      <c r="F148" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="149" ht="14.25" spans="1:6">
+      <c r="A149" s="29">
+        <v>1</v>
+      </c>
+      <c r="B149" s="7">
+        <v>10502</v>
+      </c>
+      <c r="C149">
         <v>4</v>
       </c>
-      <c r="C14" s="20">
+      <c r="D149" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E149" s="28"/>
+      <c r="F149" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="150" ht="14.25" spans="1:6">
+      <c r="A150" s="29">
+        <v>1</v>
+      </c>
+      <c r="B150" s="7">
+        <v>10502</v>
+      </c>
+      <c r="C150">
+        <v>5</v>
+      </c>
+      <c r="D150" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E150" s="28"/>
+      <c r="F150" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="151" ht="14.25" spans="1:6">
+      <c r="A151" s="29">
+        <v>1</v>
+      </c>
+      <c r="B151" s="7">
+        <v>10502</v>
+      </c>
+      <c r="C151">
+        <v>6</v>
+      </c>
+      <c r="D151" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E151" s="28"/>
+      <c r="F151" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" ht="14.25" spans="1:6">
+      <c r="A152" s="29">
+        <v>1</v>
+      </c>
+      <c r="B152" s="7">
+        <v>10502</v>
+      </c>
+      <c r="C152">
+        <v>7</v>
+      </c>
+      <c r="D152" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E152" s="28"/>
+      <c r="F152" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="153" ht="14.25" spans="1:6">
+      <c r="A153" s="29">
+        <v>1</v>
+      </c>
+      <c r="B153" s="7">
+        <v>10502</v>
+      </c>
+      <c r="C153">
+        <v>8</v>
+      </c>
+      <c r="D153" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E153" s="28"/>
+      <c r="F153" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="154" ht="14.25" spans="1:6">
+      <c r="A154" s="29">
+        <v>1</v>
+      </c>
+      <c r="B154" s="7">
+        <v>10502</v>
+      </c>
+      <c r="C154">
+        <v>9</v>
+      </c>
+      <c r="D154" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E154" s="28"/>
+      <c r="F154" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="155" ht="14.25" spans="1:6">
+      <c r="A155" s="29">
+        <v>1</v>
+      </c>
+      <c r="B155" s="7">
+        <v>10502</v>
+      </c>
+      <c r="C155">
+        <v>10</v>
+      </c>
+      <c r="D155" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E155" s="28"/>
+      <c r="F155" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="156" ht="15" spans="1:6">
+      <c r="A156" s="29">
+        <v>1</v>
+      </c>
+      <c r="B156" s="7">
+        <v>10502</v>
+      </c>
+      <c r="C156">
+        <v>11</v>
+      </c>
+      <c r="D156" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E156" s="28"/>
+      <c r="F156" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="157" ht="15" spans="1:6">
+      <c r="A157" s="31">
+        <v>0</v>
+      </c>
+      <c r="B157" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C157" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D157" s="28"/>
+      <c r="E157" s="28"/>
+      <c r="F157" s="30"/>
+    </row>
+    <row r="158" ht="14.25" spans="1:6">
+      <c r="A158" s="29">
+        <v>1</v>
+      </c>
+      <c r="B158" s="7">
+        <v>10503</v>
+      </c>
+      <c r="C158">
+        <v>9</v>
+      </c>
+      <c r="D158" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E158" s="28"/>
+      <c r="F158" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="159" ht="14.25" spans="1:6">
+      <c r="A159" s="29">
+        <v>1</v>
+      </c>
+      <c r="B159" s="7">
+        <v>10503</v>
+      </c>
+      <c r="C159">
+        <v>9</v>
+      </c>
+      <c r="D159" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E159" s="28"/>
+      <c r="F159" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="160" ht="14.25" spans="1:6">
+      <c r="A160" s="29">
+        <v>1</v>
+      </c>
+      <c r="B160" s="7">
+        <v>10503</v>
+      </c>
+      <c r="C160">
+        <v>10</v>
+      </c>
+      <c r="D160" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E160" s="28"/>
+      <c r="F160" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="161" ht="15" spans="1:6">
+      <c r="A161" s="29">
+        <v>1</v>
+      </c>
+      <c r="B161" s="7">
+        <v>10503</v>
+      </c>
+      <c r="C161">
+        <v>11</v>
+      </c>
+      <c r="D161" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E161" s="28"/>
+      <c r="F161" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="162" ht="15" spans="1:4">
+      <c r="A162" s="31">
+        <v>0</v>
+      </c>
+      <c r="B162" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C162" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D162" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="163" ht="14.25" spans="1:6">
+      <c r="A163" s="29">
+        <v>1</v>
+      </c>
+      <c r="B163" s="7">
+        <v>10601</v>
+      </c>
+      <c r="C163">
+        <v>6</v>
+      </c>
+      <c r="D163" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E163" s="28"/>
+      <c r="F163" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" ht="14.25" spans="1:6">
+      <c r="A164" s="29">
+        <v>1</v>
+      </c>
+      <c r="B164" s="7">
+        <v>10601</v>
+      </c>
+      <c r="C164">
+        <v>7</v>
+      </c>
+      <c r="D164" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E164" s="28"/>
+      <c r="F164" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" ht="14.25" spans="1:6">
+      <c r="A165" s="29">
+        <v>1</v>
+      </c>
+      <c r="B165" s="7">
+        <v>10601</v>
+      </c>
+      <c r="C165">
+        <v>8</v>
+      </c>
+      <c r="D165" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E165" s="28"/>
+      <c r="F165" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" ht="14.25" spans="1:6">
+      <c r="A166" s="29">
+        <v>1</v>
+      </c>
+      <c r="B166" s="7">
+        <v>10601</v>
+      </c>
+      <c r="C166">
+        <v>9</v>
+      </c>
+      <c r="D166" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E166" s="28"/>
+      <c r="F166" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="167" ht="14.25" spans="1:6">
+      <c r="A167" s="29">
+        <v>1</v>
+      </c>
+      <c r="B167" s="7">
+        <v>10601</v>
+      </c>
+      <c r="C167">
+        <v>10</v>
+      </c>
+      <c r="D167" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E167" s="28"/>
+      <c r="F167" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="168" ht="15" spans="1:6">
+      <c r="A168" s="29">
+        <v>1</v>
+      </c>
+      <c r="B168" s="7">
+        <v>10601</v>
+      </c>
+      <c r="C168">
+        <v>11</v>
+      </c>
+      <c r="D168" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E168" s="28"/>
+      <c r="F168" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169" ht="15" spans="1:3">
+      <c r="A169" s="31">
+        <v>0</v>
+      </c>
+      <c r="B169" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C169" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="170" ht="14.25" spans="1:6">
+      <c r="A170" s="29">
+        <v>1</v>
+      </c>
+      <c r="B170" s="7">
+        <v>10602</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E170" s="28"/>
+      <c r="F170" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="171" ht="14.25" spans="1:6">
+      <c r="A171" s="29">
+        <v>1</v>
+      </c>
+      <c r="B171" s="7">
+        <v>10602</v>
+      </c>
+      <c r="C171">
         <v>2</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>56</v>
-      </c>
+      <c r="D171" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E171" s="28"/>
+      <c r="F171" s="30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="172" ht="14.25" spans="1:6">
+      <c r="A172" s="29">
+        <v>1</v>
+      </c>
+      <c r="B172" s="7">
+        <v>10602</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+      <c r="D172" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E172" s="28"/>
+      <c r="F172" s="30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="173" ht="14.25" spans="1:6">
+      <c r="A173" s="29">
+        <v>1</v>
+      </c>
+      <c r="B173" s="7">
+        <v>10602</v>
+      </c>
+      <c r="C173">
+        <v>4</v>
+      </c>
+      <c r="D173" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E173" s="28"/>
+      <c r="F173" s="30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="174" ht="14.25" spans="1:6">
+      <c r="A174" s="29">
+        <v>1</v>
+      </c>
+      <c r="B174" s="7">
+        <v>10602</v>
+      </c>
+      <c r="C174">
+        <v>5</v>
+      </c>
+      <c r="D174" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E174" s="28"/>
+      <c r="F174" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="175" ht="14.25" spans="1:6">
+      <c r="A175" s="29">
+        <v>1</v>
+      </c>
+      <c r="B175" s="7">
+        <v>10602</v>
+      </c>
+      <c r="C175">
+        <v>6</v>
+      </c>
+      <c r="D175" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E175" s="28"/>
+      <c r="F175" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="176" ht="14.25" spans="1:6">
+      <c r="A176" s="29">
+        <v>1</v>
+      </c>
+      <c r="B176" s="7">
+        <v>10602</v>
+      </c>
+      <c r="C176">
+        <v>7</v>
+      </c>
+      <c r="D176" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E176" s="28"/>
+      <c r="F176" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="177" ht="14.25" spans="1:6">
+      <c r="A177" s="29">
+        <v>1</v>
+      </c>
+      <c r="B177" s="7">
+        <v>10602</v>
+      </c>
+      <c r="C177">
+        <v>8</v>
+      </c>
+      <c r="D177" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E177" s="28"/>
+      <c r="F177" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="178" ht="14.25" spans="1:6">
+      <c r="A178" s="29">
+        <v>1</v>
+      </c>
+      <c r="B178" s="7">
+        <v>10602</v>
+      </c>
+      <c r="C178">
+        <v>9</v>
+      </c>
+      <c r="D178" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E178" s="28"/>
+      <c r="F178" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="179" ht="14.25" spans="1:6">
+      <c r="A179" s="29">
+        <v>1</v>
+      </c>
+      <c r="B179" s="7">
+        <v>10602</v>
+      </c>
+      <c r="C179">
+        <v>10</v>
+      </c>
+      <c r="D179" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E179" s="28"/>
+      <c r="F179" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="180" ht="15" spans="1:6">
+      <c r="A180" s="29">
+        <v>1</v>
+      </c>
+      <c r="B180" s="7">
+        <v>10602</v>
+      </c>
+      <c r="C180">
+        <v>11</v>
+      </c>
+      <c r="D180" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E180" s="28"/>
+      <c r="F180" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="181" ht="15" spans="1:3">
+      <c r="A181" s="31">
+        <v>0</v>
+      </c>
+      <c r="B181" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C181" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="182" ht="14.25" spans="1:6">
+      <c r="A182" s="29">
+        <v>1</v>
+      </c>
+      <c r="B182" s="7">
+        <v>10603</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E182" s="28"/>
+      <c r="F182" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="183" ht="14.25" spans="1:6">
+      <c r="A183" s="29">
+        <v>1</v>
+      </c>
+      <c r="B183" s="7">
+        <v>10603</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+      <c r="D183" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E183" s="28"/>
+      <c r="F183" s="30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="184" ht="14.25" spans="1:6">
+      <c r="A184" s="29">
+        <v>1</v>
+      </c>
+      <c r="B184" s="7">
+        <v>10603</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+      <c r="D184" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E184" s="28"/>
+      <c r="F184" s="30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="185" ht="14.25" spans="1:6">
+      <c r="A185" s="29">
+        <v>1</v>
+      </c>
+      <c r="B185" s="7">
+        <v>10603</v>
+      </c>
+      <c r="C185">
+        <v>4</v>
+      </c>
+      <c r="D185" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E185" s="28"/>
+      <c r="F185" s="30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="186" ht="14.25" spans="1:6">
+      <c r="A186" s="29">
+        <v>1</v>
+      </c>
+      <c r="B186" s="7">
+        <v>10603</v>
+      </c>
+      <c r="C186">
+        <v>5</v>
+      </c>
+      <c r="D186" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E186" s="28"/>
+      <c r="F186" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="187" ht="14.25" spans="1:6">
+      <c r="A187" s="29">
+        <v>1</v>
+      </c>
+      <c r="B187" s="7">
+        <v>10603</v>
+      </c>
+      <c r="C187">
+        <v>6</v>
+      </c>
+      <c r="D187" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E187" s="28"/>
+      <c r="F187" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="188" ht="14.25" spans="1:6">
+      <c r="A188" s="29">
+        <v>1</v>
+      </c>
+      <c r="B188" s="7">
+        <v>10603</v>
+      </c>
+      <c r="C188">
+        <v>7</v>
+      </c>
+      <c r="D188" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E188" s="28"/>
+      <c r="F188" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="189" ht="14.25" spans="1:6">
+      <c r="A189" s="29">
+        <v>1</v>
+      </c>
+      <c r="B189" s="7">
+        <v>10603</v>
+      </c>
+      <c r="C189">
+        <v>8</v>
+      </c>
+      <c r="D189" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E189" s="28"/>
+      <c r="F189" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="190" ht="14.25" spans="1:6">
+      <c r="A190" s="29">
+        <v>1</v>
+      </c>
+      <c r="B190" s="7">
+        <v>10603</v>
+      </c>
+      <c r="C190">
+        <v>9</v>
+      </c>
+      <c r="D190" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E190" s="28"/>
+      <c r="F190" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="191" ht="14.25" spans="1:6">
+      <c r="A191" s="29">
+        <v>1</v>
+      </c>
+      <c r="B191" s="7">
+        <v>10603</v>
+      </c>
+      <c r="C191">
+        <v>10</v>
+      </c>
+      <c r="D191" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E191" s="28"/>
+      <c r="F191" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="192" ht="14.25" spans="1:6">
+      <c r="A192" s="29">
+        <v>1</v>
+      </c>
+      <c r="B192" s="7">
+        <v>10603</v>
+      </c>
+      <c r="C192">
+        <v>11</v>
+      </c>
+      <c r="D192" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E192" s="28"/>
+      <c r="F192" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="193" ht="14.25" spans="1:2">
+      <c r="A193" s="29"/>
+      <c r="B193" s="7"/>
+    </row>
+    <row r="194" ht="14.25" spans="1:2">
+      <c r="A194" s="29"/>
+      <c r="B194" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:F4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -2428,13 +7104,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="44.85" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.7" style="3" customWidth="1"/>
@@ -2443,35 +7119,39 @@
     <col min="5" max="5" width="26.8416666666667" style="3" customWidth="1"/>
     <col min="6" max="6" width="31" style="3" customWidth="1"/>
     <col min="7" max="7" width="28.2583333333333" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="8" max="8" width="17.1083333333333" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57" spans="1:7">
+    <row r="1" ht="57" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>186</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>192</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -2489,161 +7169,813 @@
         <v>2</v>
       </c>
       <c r="G2" s="8">
+        <v>2</v>
+      </c>
+      <c r="H2" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>199</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>201</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" ht="24" spans="1:7">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>74</v>
+      <c r="B5" s="9">
+        <v>7001</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" ht="36" spans="1:7">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>79</v>
+      <c r="B6" s="9">
+        <v>7002</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="3">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7" s="9">
+        <v>7003</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="3">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>85</v>
+      <c r="B8" s="9">
+        <v>7006</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="3">
-        <v>666</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>86</v>
+      <c r="B9" s="9">
+        <v>7009</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>87</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9">
+        <v>7010</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10">
+        <v>8001</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" ht="24" spans="1:7">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10">
+        <v>8002</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10">
+        <v>8003</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" ht="36" spans="1:7">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10">
+        <v>8004</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" ht="24" spans="1:7">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="10">
+        <v>8005</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" ht="24" spans="1:7">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10">
+        <v>8006</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" ht="48" spans="1:8">
+      <c r="A17" s="7">
+        <v>1</v>
+      </c>
+      <c r="B17" s="10">
+        <v>8007</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H17" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="11">
+        <v>9001</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="11">
+        <v>9002</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" ht="24" spans="1:8">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" ht="36" spans="1:7">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="9">
+        <v>2</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" ht="24" spans="1:8">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="9">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="12">
+        <v>10001</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H27" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="12">
+        <v>10003</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H28" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="12">
+        <v>10004</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H29" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="B30" s="12">
+        <v>10005</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="12">
+        <v>10006</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H31" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3">
+        <v>1</v>
+      </c>
+      <c r="B32" s="12">
+        <v>10007</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H32" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="3">
+        <v>1</v>
+      </c>
+      <c r="B33" s="12">
+        <v>10008</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H33" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="12">
+        <v>10009</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H34" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="3">
+        <v>1</v>
+      </c>
+      <c r="B35" s="12">
+        <v>10019</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H35" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="B36" s="12">
+        <v>10020</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H36" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="3">
+        <v>1</v>
+      </c>
+      <c r="B37" s="12">
+        <v>10023</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H37" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="3">
+        <v>1</v>
+      </c>
+      <c r="B38" s="12">
+        <v>10024</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H38" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="3">
+        <v>1</v>
+      </c>
+      <c r="B39" s="12">
+        <v>10025</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H39" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="3">
+        <v>1</v>
+      </c>
+      <c r="B40" s="12">
+        <v>10031</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H40" s="3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:G4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:H4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -2657,8 +7989,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F11"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2673,27 +8005,27 @@
   <sheetData>
     <row r="1" ht="42.75" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>88</v>
+        <v>283</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>89</v>
+        <v>284</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>90</v>
+        <v>285</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>91</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -2713,42 +8045,42 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>92</v>
+        <v>287</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>93</v>
+        <v>288</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>94</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>95</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" ht="51" spans="1:6">
@@ -2759,13 +8091,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>96</v>
+        <v>291</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>96</v>
+        <v>291</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>96</v>
+        <v>291</v>
       </c>
       <c r="F5" t="str">
         <f>_xlfn.DISPIMG("ID_23117829C72A4D1EB611C6413ABDE057",1)</f>
@@ -2780,13 +8112,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>97</v>
+        <v>292</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>97</v>
+        <v>292</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>97</v>
+        <v>292</v>
       </c>
       <c r="F6" t="str">
         <f>_xlfn.DISPIMG("ID_9AEBCD3B6BDD45A680E647244E376B90",1)</f>
@@ -2801,13 +8133,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>98</v>
+        <v>293</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>98</v>
+        <v>293</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>98</v>
+        <v>293</v>
       </c>
       <c r="F7" t="str">
         <f>_xlfn.DISPIMG("ID_E7E867ACD9744375AB976A4A614FB71B",1)</f>
@@ -2822,13 +8154,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="F8" t="str">
         <f>_xlfn.DISPIMG("ID_46417E94611C48BD8423CA81D050314A",1)</f>
@@ -2843,13 +8175,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="F9" t="str">
         <f>_xlfn.DISPIMG("ID_6DA239E6E1AA43FC9791BAB0D140E412",1)</f>
@@ -2864,13 +8196,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>296</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>101</v>
+        <v>296</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>101</v>
+        <v>296</v>
       </c>
       <c r="F10" t="str">
         <f>_xlfn.DISPIMG("ID_37153458CCA041888A6B8231417BA062",1)</f>
@@ -2885,13 +8217,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>102</v>
+        <v>297</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>102</v>
+        <v>297</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>102</v>
+        <v>297</v>
       </c>
       <c r="F11" t="str">
         <f>_xlfn.DISPIMG("ID_37153458CCA041888A6B8231417BA062",1)</f>
@@ -2914,8 +8246,8 @@
   <sheetPr/>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2928,19 +8260,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>299</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>300</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>301</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2948,16 +8280,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>303</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>304</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>305</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>111</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2965,16 +8297,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>307</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>308</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>114</v>
+        <v>309</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>115</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2982,16 +8314,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>308</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>116</v>
+        <v>311</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>117</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2999,16 +8331,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>313</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>113</v>
+        <v>308</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>119</v>
+        <v>314</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>120</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3016,16 +8348,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>316</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
+        <v>308</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>122</v>
+        <v>317</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>123</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3033,14 +8365,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>319</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>125</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3048,16 +8380,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>126</v>
+        <v>321</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>127</v>
+        <v>322</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>128</v>
+        <v>323</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>129</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3065,16 +8397,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>130</v>
+        <v>325</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>127</v>
+        <v>322</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>131</v>
+        <v>326</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>132</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3082,16 +8414,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>127</v>
+        <v>322</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>133</v>
+        <v>328</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>134</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3099,16 +8431,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>135</v>
+        <v>330</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>127</v>
+        <v>322</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>136</v>
+        <v>331</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>137</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3116,16 +8448,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>138</v>
+        <v>333</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>127</v>
+        <v>322</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>139</v>
+        <v>334</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>140</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3133,13 +8465,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>141</v>
+        <v>336</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>127</v>
+        <v>322</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>142</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3147,10 +8479,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>143</v>
+        <v>338</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>144</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3158,10 +8490,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>145</v>
+        <v>340</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>144</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3169,10 +8501,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>144</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3180,10 +8512,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>146</v>
+        <v>341</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>144</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3191,10 +8523,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>147</v>
+        <v>342</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>144</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3202,10 +8534,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>148</v>
+        <v>343</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>144</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3213,10 +8545,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>149</v>
+        <v>344</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>127</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3224,10 +8556,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>150</v>
+        <v>345</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>127</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3235,10 +8567,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>127</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3246,10 +8578,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>151</v>
+        <v>346</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>127</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3257,10 +8589,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>152</v>
+        <v>347</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>127</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3268,10 +8600,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>153</v>
+        <v>348</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>127</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3279,16 +8611,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>154</v>
+        <v>349</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>155</v>
+        <v>350</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>156</v>
+        <v>351</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3296,16 +8628,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>158</v>
+        <v>352</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>159</v>
+        <v>353</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>160</v>
+        <v>354</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>161</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3313,16 +8645,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>162</v>
+        <v>356</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>127</v>
+        <v>322</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>163</v>
+        <v>357</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3330,16 +8662,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>164</v>
+        <v>358</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>127</v>
+        <v>322</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>165</v>
+        <v>359</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>166</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3347,13 +8679,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>95</v>
+        <v>290</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>167</v>
+        <v>361</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>168</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3361,16 +8693,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>159</v>
+        <v>353</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>170</v>
+        <v>363</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>171</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3378,16 +8710,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>172</v>
+        <v>365</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>113</v>
+        <v>308</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>173</v>
+        <v>366</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>174</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3395,16 +8727,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>175</v>
+        <v>368</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>176</v>
+        <v>369</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>177</v>
+        <v>370</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>176</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3412,16 +8744,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>178</v>
+        <v>371</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>179</v>
+        <v>372</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>180</v>
+        <v>373</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>179</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3429,16 +8761,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>127</v>
+        <v>322</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>181</v>
+        <v>374</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>171</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3446,14 +8778,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>182</v>
+        <v>375</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>183</v>
+        <v>376</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>184</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3461,11 +8793,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>185</v>
+        <v>378</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>186</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3473,16 +8805,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>187</v>
+        <v>380</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>127</v>
+        <v>322</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>188</v>
+        <v>381</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
